--- a/Entregas_2024-03-31.xlsx
+++ b/Entregas_2024-03-31.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,6 +603,46 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">helio filho </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-03-31 23:43:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>paul sheldon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-03-31 23:44:21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
